--- a/biology/Médecine/Benjamin_Libet/Benjamin_Libet.xlsx
+++ b/biology/Médecine/Benjamin_Libet/Benjamin_Libet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Libet, né le 12 avril 1916 à Chicago et mort le 23 juillet 2007 à Davis en Californie, était un scientifique pionnier dans le domaine de la conscience humaine. Il était chercheur au département de physiologie à l'université de Californie à San Francisco. Il est le premier à recevoir, en 2003, le « prix Nobel virtuel de psychologie » de l'université de Klagenfurt, « pour ses résultats dans le domaine de la conscience, l'initiation de l'action, et le libre arbitre »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Libet, né le 12 avril 1916 à Chicago et mort le 23 juillet 2007 à Davis en Californie, était un scientifique pionnier dans le domaine de la conscience humaine. Il était chercheur au département de physiologie à l'université de Californie à San Francisco. Il est le premier à recevoir, en 2003, le « prix Nobel virtuel de psychologie » de l'université de Klagenfurt, « pour ses résultats dans le domaine de la conscience, l'initiation de l'action, et le libre arbitre ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mise en évidence de la conscience de ses décisions avant le choix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1970, Libet fut impliqué dans les études sur l'activité neuronale et la « sensation de seuil ». Ces enquêtes visaient à déterminer la séquence d'activation, dans des zones spécifiques du cerveau, nécessaire pour déclencher des actions volontaires telles que l'appui d'un bouton, à l'aide d'un équipement électroencéphalographique. Une expérience célèbre — reproduite par la suite de nombreuses fois par d'autres groupes — a montré que des événements cérébraux inconscients (observables sous forme de potentiels électriques, appelés potentiels de préparation) précèdent en réalité, dans un temps variable (de 0,3 à plusieurs secondes), la sensation consciente d'avoir pris une décision volontaire en préparation d'une action motrice tel qu'appuyer sur un bouton. 
 Désormais bien connu en neurologie, le « Bereitschaftspotential » (BP en allemand, « potentiel de préparation » en français), également appelé « potentiel prémoteur », est une mesure de l'activité du cortex moteur et de la région motrice supplémentaire occupée par le cerveau dans la préparation d'un mouvement musculaire volontaire. C'est une manifestation de la contribution corticale à la planification du mouvement volontaire. Il a été enregistré et signalé dès 1964 par Hans Helmut Kornhuber et Lüder Deecke à l'université de Fribourg en Allemagne. La publication complète est parue en 1965 après de nombreuses expériences utilisées comme contrôle.
